--- a/biology/Zoologie/Dinah_le_teckel/Dinah_le_teckel.xlsx
+++ b/biology/Zoologie/Dinah_le_teckel/Dinah_le_teckel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dinah le teckel (ou simplement Dinah) est un personnage de fiction de l'univers de Mickey Mouse créé en 1942 par les studios Disney. Cette petite chienne est apparue pour la première fois dans le court-métrage Pluto somnambule, remplaçant peu à peu son précédent "flirt" de Pluto, Fifi le pékinois. Mais contrairement à cette dernière, Dinah n'hésite pas à mettre en compétition Pluto et son ennemi juré, Butch le bouledogue, afin d'obtenir ses bonnes grâces.
